--- a/RO/FinalResultsGraphing/RO_Worksheet.xlsx
+++ b/RO/FinalResultsGraphing/RO_Worksheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven/Desktop/5_CHEE_301B/CHEE_301B_Repo/RO/FinalResultsGraphing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27B135E-AE99-E448-825B-04F528AA453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0223951A-35BA-0B46-BBDA-B47BE5421D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19480" activeTab="1" xr2:uid="{81BDDA59-F480-4C30-8BBC-AD1E6993C18D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19480" activeTab="2" xr2:uid="{81BDDA59-F480-4C30-8BBC-AD1E6993C18D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="fluxVsPressure" sheetId="3" r:id="rId2"/>
-    <sheet name="water density" sheetId="2" r:id="rId3"/>
+    <sheet name="fluxVsPDiff" sheetId="4" r:id="rId3"/>
+    <sheet name="water density" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Week 1</t>
   </si>
@@ -578,6 +579,15 @@
   </si>
   <si>
     <t>Run</t>
+  </si>
+  <si>
+    <t>Feed Osmotic pressure, pf (kPa)</t>
+  </si>
+  <si>
+    <t>Osmotic Pressure Difference (kPa)</t>
+  </si>
+  <si>
+    <t>Delta P - Delta Pi (kPa)</t>
   </si>
 </sst>
 </file>
@@ -3683,8 +3693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FF4BF0-FC9E-1649-B74A-1D2D26E94D1A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3949,6 +3959,505 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAB2749-D02D-4E4E-8932-C02A790ACEB4}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="7" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="26" t="str" cm="1">
+        <f t="array" ref="B1:B13">TRANSPOSE(Sheet1!B13:N13)</f>
+        <v>Transmembrane Pressure drop, psi</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="26" t="str" cm="1">
+        <f t="array" ref="D1:D13">TRANSPOSE(Sheet1!B24:N24)</f>
+        <v>Feed Osmotic pressure, pf (atm)</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="26" t="str" cm="1">
+        <f t="array" ref="F1:F13">TRANSPOSE(Sheet1!B23:N23)</f>
+        <v>Permeate Osmotic pressure, pp (atm)</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="str" cm="1">
+        <f t="array" ref="J1:J13">fluxVsPressure!E1:E13</f>
+        <v>Water Flux corrected to 25°C Jw, L/m^2-hr</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <f>B2*6894.7572931783/1000</f>
+        <v>517.10679698837248</v>
+      </c>
+      <c r="D2">
+        <v>0.91451975007494879</v>
+      </c>
+      <c r="E2">
+        <f>D2*101.325</f>
+        <v>92.663713676344187</v>
+      </c>
+      <c r="F2">
+        <v>4.3589832215199346E-2</v>
+      </c>
+      <c r="G2">
+        <f>F2*101.325</f>
+        <v>4.4167397492050737</v>
+      </c>
+      <c r="H2">
+        <f>E2-G2</f>
+        <v>88.246973927139109</v>
+      </c>
+      <c r="I2">
+        <f>C2-H2</f>
+        <v>428.85982306123339</v>
+      </c>
+      <c r="J2">
+        <v>32.007555843285857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>115</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C13" si="0">B3*6894.7572931783/1000</f>
+        <v>792.89708871550454</v>
+      </c>
+      <c r="D3">
+        <v>0.91627883262645449</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="1">D3*101.325</f>
+        <v>92.841952715875507</v>
+      </c>
+      <c r="F3">
+        <v>3.8223213164998292E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="2">F3*101.325</f>
+        <v>3.8729670739434519</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="3">E3-G3</f>
+        <v>88.968985641932051</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="4">C3-H3</f>
+        <v>703.92810307357252</v>
+      </c>
+      <c r="J3">
+        <v>47.184464876331674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>155</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1068.6873804426366</v>
+      </c>
+      <c r="D4">
+        <v>0.92476680694413071</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>93.701996713614051</v>
+      </c>
+      <c r="F4">
+        <v>3.0511134773485625E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>3.0915407309234308</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>90.610455982690624</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>978.07692445994599</v>
+      </c>
+      <c r="J4">
+        <v>62.432870639408186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>517.10679698837248</v>
+      </c>
+      <c r="D5">
+        <v>4.2109824011088293</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>426.67779179235214</v>
+      </c>
+      <c r="F5">
+        <v>0.44929767100231</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>45.525086514309059</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>381.15270527804307</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>135.95409171032941</v>
+      </c>
+      <c r="J5">
+        <v>12.620574924262856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>792.89708871550454</v>
+      </c>
+      <c r="D6">
+        <v>4.1903821160831622</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>424.59046791212643</v>
+      </c>
+      <c r="F6">
+        <v>0.34255532228567753</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>34.709418030596275</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>389.88104988153015</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>403.01603883397439</v>
+      </c>
+      <c r="J6">
+        <v>28.194751638419142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>155</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1068.6873804426366</v>
+      </c>
+      <c r="D7">
+        <v>4.1839889241786441</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>423.94267774240114</v>
+      </c>
+      <c r="F7">
+        <v>0.24308459051805273</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>24.630546134241694</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>399.31213160815946</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>669.37524883447713</v>
+      </c>
+      <c r="J7">
+        <v>43.365814967433018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>517.10679698837248</v>
+      </c>
+      <c r="D8">
+        <v>0.80920338778151046</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>81.992533266961544</v>
+      </c>
+      <c r="F8">
+        <v>4.9033799046111368E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>4.9683496883472342</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>77.024183578614313</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>440.08261340975815</v>
+      </c>
+      <c r="J8">
+        <v>29.894976097153702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>115</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>792.89708871550454</v>
+      </c>
+      <c r="D9">
+        <v>0.81528969821107855</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>82.609228671237531</v>
+      </c>
+      <c r="F9">
+        <v>4.2777310196143309E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>4.3344109556242207</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>78.27481771561331</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>714.62227099989127</v>
+      </c>
+      <c r="J9">
+        <v>43.600417043516835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>155</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1068.6873804426366</v>
+      </c>
+      <c r="D10">
+        <v>0.81664666127516772</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>82.746722953706367</v>
+      </c>
+      <c r="F10">
+        <v>3.6449517883954279E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>3.6932473995916673</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>79.053475554114698</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>989.6339048885219</v>
+      </c>
+      <c r="J10">
+        <v>55.045895736950598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>517.10679698837248</v>
+      </c>
+      <c r="D11">
+        <v>3.5973435883873721</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>364.50083909335046</v>
+      </c>
+      <c r="F11">
+        <v>0.29583004684437864</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>29.974979496506666</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>334.52585959684382</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>182.58093739152866</v>
+      </c>
+      <c r="J11">
+        <v>14.546005889762828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>115</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>792.89708871550454</v>
+      </c>
+      <c r="D12">
+        <v>3.5946673041166464</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>364.22966458961918</v>
+      </c>
+      <c r="F12">
+        <v>0.21060640769917258</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>21.339694260118662</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>342.8899703295005</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>450.00711838600404</v>
+      </c>
+      <c r="J12">
+        <v>25.974021374800309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>155</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1068.6873804426366</v>
+      </c>
+      <c r="D13">
+        <v>3.6035882349453527</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>365.13357790583785</v>
+      </c>
+      <c r="F13">
+        <v>0.15335704463683825</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>15.538902547827636</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>349.59467535801019</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>719.09270508462646</v>
+      </c>
+      <c r="J13">
+        <v>40.319699452138998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD34794-4739-471C-8187-5C37806194C4}">
   <dimension ref="D4:H9"/>
   <sheetViews>

--- a/RO/FinalResultsGraphing/RO_Worksheet.xlsx
+++ b/RO/FinalResultsGraphing/RO_Worksheet.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven/Desktop/5_CHEE_301B/CHEE_301B_Repo/RO/FinalResultsGraphing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0223951A-35BA-0B46-BBDA-B47BE5421D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAF324F-73B8-5E4B-A40C-3FE40287730A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19480" activeTab="2" xr2:uid="{81BDDA59-F480-4C30-8BBC-AD1E6993C18D}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="34560" windowHeight="19480" activeTab="3" xr2:uid="{81BDDA59-F480-4C30-8BBC-AD1E6993C18D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="fluxVsPressure" sheetId="3" r:id="rId2"/>
     <sheet name="fluxVsPDiff" sheetId="4" r:id="rId3"/>
-    <sheet name="water density" sheetId="2" r:id="rId4"/>
+    <sheet name="cVsCDrop" sheetId="5" r:id="rId4"/>
+    <sheet name="water density" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Week 1</t>
   </si>
@@ -813,14 +814,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -831,14 +832,14 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2242,34 +2243,34 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -2317,38 +2318,38 @@
         <v>16</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25" t="s">
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -2374,28 +2375,28 @@
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="18">
+      <c r="I8" s="24">
         <v>0.50939999999999996</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="18">
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="24">
         <v>0.50939999999999996</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -2414,28 +2415,28 @@
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="18">
+      <c r="I9" s="24">
         <v>0</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="18">
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="24">
         <v>0</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -2471,28 +2472,28 @@
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="18">
+      <c r="I11" s="24">
         <v>0.44829999999999998</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="18">
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="24">
         <v>0.44829999999999998</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -2511,28 +2512,28 @@
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="18">
+      <c r="I12" s="24">
         <v>0</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="18">
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="24">
         <v>0</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -3638,18 +3639,22 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="O3:T3"/>
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="U3:Z3"/>
@@ -3666,22 +3671,18 @@
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="R9:T9"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="U9:W9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3694,7 +3695,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3709,18 +3710,18 @@
       <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="26" t="str" cm="1">
+      <c r="B1" s="18" t="str" cm="1">
         <f t="array" ref="B1:B13">TRANSPOSE(Sheet1!B13:N13)</f>
         <v>Transmembrane Pressure drop, psi</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="26" t="str" cm="1">
+      <c r="D1" s="18" t="str" cm="1">
         <f t="array" ref="D1:D13">TRANSPOSE(Sheet1!B26:N26)</f>
         <v>Water Flux corrected to 25°C Jw, mol/m^2-hr</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3856,7 +3857,7 @@
         <f>((D8*18.016)/'water density'!$E$8)/1000</f>
         <v>29.894976097153702</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -3955,6 +3956,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3962,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAB2749-D02D-4E4E-8932-C02A790ACEB4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3975,31 +3977,31 @@
       <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="26" t="str" cm="1">
+      <c r="B1" s="18" t="str" cm="1">
         <f t="array" ref="B1:B13">TRANSPOSE(Sheet1!B13:N13)</f>
         <v>Transmembrane Pressure drop, psi</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="26" t="str" cm="1">
+      <c r="D1" s="18" t="str" cm="1">
         <f t="array" ref="D1:D13">TRANSPOSE(Sheet1!B24:N24)</f>
         <v>Feed Osmotic pressure, pf (atm)</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="26" t="str" cm="1">
+      <c r="F1" s="18" t="str" cm="1">
         <f t="array" ref="F1:F13">TRANSPOSE(Sheet1!B23:N23)</f>
         <v>Permeate Osmotic pressure, pp (atm)</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="18" t="s">
         <v>47</v>
       </c>
       <c r="J1" t="str" cm="1">
@@ -4458,6 +4460,169 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0D1540-776A-F943-B79E-86806F7B9675}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="18" t="str" cm="1">
+        <f t="array" ref="B1:B13">TRANSPOSE(Sheet1!B27:N27)</f>
+        <v>Salt Flux corrected to 25°C Js, mol/m^2-hr</v>
+      </c>
+      <c r="C1" t="str" cm="1">
+        <f t="array" ref="C1:C13">TRANSPOSE(Sheet1!B22:N22)</f>
+        <v>Salt concentration Gradient, DCs, mol/L</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.5883933335668685</v>
+      </c>
+      <c r="C2">
+        <v>1.7989525581793293E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.0598824090767924</v>
+      </c>
+      <c r="C3">
+        <v>1.8236946013004789E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2.1771196803453114</v>
+      </c>
+      <c r="C4">
+        <v>1.8581748374401096E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>6.4284135742572532</v>
+      </c>
+      <c r="C5">
+        <v>7.731932323750855E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>10.988187100732166</v>
+      </c>
+      <c r="C6">
+        <v>7.9481048939082824E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>12.007300740512015</v>
+      </c>
+      <c r="C7">
+        <v>8.1519999144421623E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1.1227984738266679</v>
+      </c>
+      <c r="C8">
+        <v>1.0556817763703773E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1.4315330050124817</v>
+      </c>
+      <c r="C9">
+        <v>1.0775952358445978E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1.5424350384616776</v>
+      </c>
+      <c r="C10">
+        <v>1.0889655145939019E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>3.2908168892378717</v>
+      </c>
+      <c r="C11">
+        <v>4.5740489756435715E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>4.1852911524668537</v>
+      </c>
+      <c r="C12">
+        <v>4.7113002425139952E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4.7415768803346632</v>
+      </c>
+      <c r="C13">
+        <v>4.808689342617975E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD34794-4739-471C-8187-5C37806194C4}">
   <dimension ref="D4:H9"/>
   <sheetViews>

--- a/RO/FinalResultsGraphing/RO_Worksheet.xlsx
+++ b/RO/FinalResultsGraphing/RO_Worksheet.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven/Desktop/5_CHEE_301B/CHEE_301B_Repo/RO/FinalResultsGraphing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAF324F-73B8-5E4B-A40C-3FE40287730A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB815E6F-ADF5-B449-9A2D-57103A851487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="34560" windowHeight="19480" activeTab="3" xr2:uid="{81BDDA59-F480-4C30-8BBC-AD1E6993C18D}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="19480" xr2:uid="{81BDDA59-F480-4C30-8BBC-AD1E6993C18D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="fluxVsPressure" sheetId="3" r:id="rId2"/>
     <sheet name="fluxVsPDiff" sheetId="4" r:id="rId3"/>
     <sheet name="cVsCDrop" sheetId="5" r:id="rId4"/>
-    <sheet name="water density" sheetId="2" r:id="rId5"/>
+    <sheet name="PDiffWithOsmoticPressureDiff" sheetId="6" r:id="rId5"/>
+    <sheet name="water density" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Week 1</t>
   </si>
@@ -817,11 +818,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -832,14 +836,11 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2226,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C8900-F8FE-494C-A82D-A0F58AF8A95B}">
   <dimension ref="A2:AC36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2243,34 +2244,34 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -2318,38 +2319,38 @@
         <v>16</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20" t="s">
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -2365,38 +2366,38 @@
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="22">
         <v>0.54369999999999996</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="21">
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="22">
         <v>0.54369999999999996</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24">
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="19">
         <v>0.50939999999999996</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="24">
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="19">
         <v>0.50939999999999996</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -2405,38 +2406,38 @@
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="22">
         <v>0</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="21">
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="22">
         <v>0</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24">
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="19">
         <v>0</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="24">
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="19">
         <v>0</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -2462,38 +2463,38 @@
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="22">
         <v>0.51249999999999996</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="21">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="22">
         <v>0.51249999999999996</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24">
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="19">
         <v>0.44829999999999998</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="24">
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="19">
         <v>0.44829999999999998</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -2502,38 +2503,38 @@
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="22">
         <v>0</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="21">
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="22">
         <v>0</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24">
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="19">
         <v>0</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="24">
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19">
         <v>0</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -3639,22 +3640,18 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="O3:T3"/>
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="U3:Z3"/>
@@ -3671,18 +3668,22 @@
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="R9:T9"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3695,7 +3696,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A13" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3965,7 +3966,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4463,7 +4464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0D1540-776A-F943-B79E-86806F7B9675}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4623,6 +4624,220 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF07EAE4-8095-8840-A193-F58613B32337}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="18" t="str" cm="1">
+        <f t="array" ref="B1:B13">fluxVsPressure!E1:E13</f>
+        <v>Water Flux corrected to 25°C Jw, L/m^2-hr</v>
+      </c>
+      <c r="C1" s="18" t="str" cm="1">
+        <f t="array" ref="C1:C13">fluxVsPressure!C1:C13</f>
+        <v>Transmembrane Pressure drop, kPa</v>
+      </c>
+      <c r="D1" s="18" t="str" cm="1">
+        <f t="array" ref="D1:D13">fluxVsPDiff!I1:I13</f>
+        <v>Delta P - Delta Pi (kPa)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>32.007555843285857</v>
+      </c>
+      <c r="C2">
+        <v>517.10679698837248</v>
+      </c>
+      <c r="D2">
+        <v>428.85982306123339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>47.184464876331674</v>
+      </c>
+      <c r="C3">
+        <v>792.89708871550454</v>
+      </c>
+      <c r="D3">
+        <v>703.92810307357252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>62.432870639408186</v>
+      </c>
+      <c r="C4">
+        <v>1068.6873804426366</v>
+      </c>
+      <c r="D4">
+        <v>978.07692445994599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>12.620574924262856</v>
+      </c>
+      <c r="C5">
+        <v>517.10679698837248</v>
+      </c>
+      <c r="D5">
+        <v>135.95409171032941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>28.194751638419142</v>
+      </c>
+      <c r="C6">
+        <v>792.89708871550454</v>
+      </c>
+      <c r="D6">
+        <v>403.01603883397439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>43.365814967433018</v>
+      </c>
+      <c r="C7">
+        <v>1068.6873804426366</v>
+      </c>
+      <c r="D7">
+        <v>669.37524883447713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>29.894976097153702</v>
+      </c>
+      <c r="C8">
+        <v>517.10679698837248</v>
+      </c>
+      <c r="D8">
+        <v>440.08261340975815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>43.600417043516835</v>
+      </c>
+      <c r="C9">
+        <v>792.89708871550454</v>
+      </c>
+      <c r="D9">
+        <v>714.62227099989127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>55.045895736950598</v>
+      </c>
+      <c r="C10">
+        <v>1068.6873804426366</v>
+      </c>
+      <c r="D10">
+        <v>989.6339048885219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>14.546005889762828</v>
+      </c>
+      <c r="C11">
+        <v>517.10679698837248</v>
+      </c>
+      <c r="D11">
+        <v>182.58093739152866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>25.974021374800309</v>
+      </c>
+      <c r="C12">
+        <v>792.89708871550454</v>
+      </c>
+      <c r="D12">
+        <v>450.00711838600404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>40.319699452138998</v>
+      </c>
+      <c r="C13">
+        <v>1068.6873804426366</v>
+      </c>
+      <c r="D13">
+        <v>719.09270508462646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD34794-4739-471C-8187-5C37806194C4}">
   <dimension ref="D4:H9"/>
   <sheetViews>

--- a/RO/FinalResultsGraphing/RO_Worksheet.xlsx
+++ b/RO/FinalResultsGraphing/RO_Worksheet.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven/Desktop/5_CHEE_301B/CHEE_301B_Repo/RO/FinalResultsGraphing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB815E6F-ADF5-B449-9A2D-57103A851487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0E2F43-1CC2-3D44-B467-40D43A873FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="19480" xr2:uid="{81BDDA59-F480-4C30-8BBC-AD1E6993C18D}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="34560" windowHeight="19480" xr2:uid="{81BDDA59-F480-4C30-8BBC-AD1E6993C18D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="fluxVsPressure" sheetId="3" r:id="rId2"/>
-    <sheet name="fluxVsPDiff" sheetId="4" r:id="rId3"/>
-    <sheet name="cVsCDrop" sheetId="5" r:id="rId4"/>
-    <sheet name="PDiffWithOsmoticPressureDiff" sheetId="6" r:id="rId5"/>
-    <sheet name="water density" sheetId="2" r:id="rId6"/>
+    <sheet name="recoveryVsPressure" sheetId="7" r:id="rId2"/>
+    <sheet name="fluxVsPressure" sheetId="3" r:id="rId3"/>
+    <sheet name="fluxVsPDiff" sheetId="4" r:id="rId4"/>
+    <sheet name="cVsCDrop" sheetId="5" r:id="rId5"/>
+    <sheet name="PDiffWithOsmoticPressureDiff" sheetId="6" r:id="rId6"/>
+    <sheet name="water density" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Week 1</t>
   </si>
@@ -591,15 +592,37 @@
   <si>
     <t>Delta P - Delta Pi (kPa)</t>
   </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>NaCl</t>
+  </si>
+  <si>
+    <t>1 g/L</t>
+  </si>
+  <si>
+    <t>5 g/L</t>
+  </si>
+  <si>
+    <t>MgCl2</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Permeate Flow, ml/min</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.00000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -676,7 +699,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,8 +724,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -775,12 +804,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -818,14 +967,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -836,10 +982,52 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2225,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C8900-F8FE-494C-A82D-A0F58AF8A95B}">
-  <dimension ref="A2:AC36"/>
+  <dimension ref="A2:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="200" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2244,34 +2432,34 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -2319,38 +2507,38 @@
         <v>16</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26" t="s">
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -2366,38 +2554,38 @@
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="22">
-        <v>0.54369999999999996</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="22">
-        <v>0.54369999999999996</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="19">
-        <v>0.50939999999999996</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="19">
-        <v>0.50939999999999996</v>
-      </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
+      <c r="C8" s="21">
+        <v>0.54398085190000001</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="21">
+        <v>0.54398085190000001</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24">
+        <v>0.51009998000000001</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="24">
+        <v>0.51009998000000001</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -2406,38 +2594,38 @@
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>0</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="22">
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="21">
         <v>0</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="19">
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24">
         <v>0</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="19">
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="24">
         <v>0</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -2463,38 +2651,40 @@
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="22">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="22">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="19">
-        <v>0.44829999999999998</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="19">
-        <v>0.44829999999999998</v>
-      </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
+      <c r="C11" s="21">
+        <v>0.513004668</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21">
+        <v>0.513004668</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24">
+        <f>0.4484103852</f>
+        <v>0.44841038519999998</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="24">
+        <f>0.4484103852</f>
+        <v>0.44841038519999998</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -2503,38 +2693,38 @@
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>0</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="22">
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21">
         <v>0</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="19">
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24">
         <v>0</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="19">
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="24">
         <v>0</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -2668,51 +2858,51 @@
       </c>
       <c r="C16" s="9">
         <f>C20/1000+1</f>
-        <v>1.000052403125</v>
+        <v>1.0000524547273031</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" ref="D16:N16" si="0">D20/1000+1</f>
-        <v>1.000046099375</v>
+        <v>1.0000461447698865</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="0"/>
-        <v>1.0000368231250001</v>
+        <v>1.0000368593853959</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="0"/>
-        <v>1.0005378687499999</v>
+        <v>1.0005383983990661</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
-        <v>1.0004115375</v>
+        <v>1.0004119427484039</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="0"/>
-        <v>1.00029238125</v>
+        <v>1.000292669163094</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="0"/>
-        <v>1.0000646148239001</v>
+        <v>1.0000646307340499</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="0"/>
-        <v>1.0000564858000001</v>
+        <v>1.0000564997085353</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="0"/>
-        <v>1.0000482070439001</v>
+        <v>1.0000482189139517</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="0"/>
-        <v>1.0003892140599999</v>
+        <v>1.0003893098964307</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="0"/>
-        <v>1.0002772139261</v>
+        <v>1.0002772821846651</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="0"/>
-        <v>1.0002023177899999</v>
+        <v>1.0002023676068408</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
@@ -2847,51 +3037,51 @@
       </c>
       <c r="C20" s="10">
         <f>($C$11*C14/1000)+$C$12</f>
-        <v>5.2403124999999995E-2</v>
+        <v>5.2454727303E-2</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" ref="D20:H20" si="1">($C$11*D14/1000)+$C$12</f>
-        <v>4.6099374999999998E-2</v>
+        <v>4.6144769886600004E-2</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="1"/>
-        <v>3.6823124999999998E-2</v>
+        <v>3.6859385395799998E-2</v>
       </c>
       <c r="F20" s="10">
         <f>($C$11*F14/1000)+$C$12</f>
-        <v>0.53786875000000001</v>
+        <v>0.53839839906600007</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="1"/>
-        <v>0.41153749999999995</v>
+        <v>0.41194274840399997</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" si="1"/>
-        <v>0.29238124999999998</v>
+        <v>0.29266916309399998</v>
       </c>
       <c r="I20" s="10">
         <f>($I$11*I14/1000)-$I$12</f>
-        <v>6.4614823900000007E-2</v>
+        <v>6.4630734050031599E-2</v>
       </c>
       <c r="J20" s="10">
         <f t="shared" ref="J20:N20" si="2">($I$11*J14/1000)-$I$12</f>
-        <v>5.6485799999999996E-2</v>
+        <v>5.6499708535199998E-2</v>
       </c>
       <c r="K20" s="10">
         <f t="shared" si="2"/>
-        <v>4.8207043899999996E-2</v>
+        <v>4.8218913951711601E-2</v>
       </c>
       <c r="L20" s="10">
         <f t="shared" si="2"/>
-        <v>0.38921406000000003</v>
+        <v>0.38930989643063996</v>
       </c>
       <c r="M20" s="10">
         <f t="shared" si="2"/>
-        <v>0.27721392610000001</v>
+        <v>0.2772821846649684</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="2"/>
-        <v>0.20231779</v>
+        <f>($I$11*N14/1000)-$I$12</f>
+        <v>0.20236760684075999</v>
       </c>
       <c r="AA20" s="5"/>
     </row>
@@ -2901,51 +3091,51 @@
       </c>
       <c r="C21" s="10">
         <f>($C$8*C15/1000)-$C$9</f>
-        <v>1.1037110000000001</v>
+        <v>1.1042811293570001</v>
       </c>
       <c r="D21" s="10">
         <f t="shared" ref="D21:H21" si="3">($C$8*D15/1000)-$C$9</f>
-        <v>1.1118664999999999</v>
+        <v>1.1124408421354999</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" si="3"/>
-        <v>1.1227404999999999</v>
+        <v>1.1233204591735</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="3"/>
-        <v>5.0564099999999996</v>
+        <v>5.0590219226700004</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="3"/>
-        <v>5.0564099999999996</v>
+        <v>5.0590219226700004</v>
       </c>
       <c r="H21" s="10">
         <f t="shared" si="3"/>
-        <v>5.0564099999999996</v>
+        <v>5.0590219226700004</v>
       </c>
       <c r="I21" s="10">
         <f>($I$8*I15/1000)-$I$9</f>
-        <v>1.0697399999999999</v>
+        <v>1.0712099579999999</v>
       </c>
       <c r="J21" s="10">
         <f t="shared" ref="J21:N21" si="4">($I$8*J15/1000)-$I$9</f>
-        <v>1.0824749999999999</v>
+        <v>1.0839624575</v>
       </c>
       <c r="K21" s="10">
         <f t="shared" si="4"/>
-        <v>1.0850219999999999</v>
+        <v>1.0865129574000001</v>
       </c>
       <c r="L21" s="10">
         <f t="shared" si="4"/>
-        <v>4.7442118302000003</v>
+        <v>4.7507309770333404</v>
       </c>
       <c r="M21" s="10">
         <f t="shared" si="4"/>
-        <v>4.7628899999999996</v>
+        <v>4.7694348130000002</v>
       </c>
       <c r="N21" s="10">
         <f t="shared" si="4"/>
-        <v>4.7807190000000004</v>
+        <v>4.7872883123000003</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
@@ -2954,51 +3144,51 @@
       </c>
       <c r="C22" s="10">
         <f>(C21-C20)/58.44</f>
-        <v>1.7989525581793293E-2</v>
+        <v>1.799839839243669E-2</v>
       </c>
       <c r="D22" s="10">
         <f t="shared" ref="D22:H22" si="5">(D21-D20)/58.44</f>
-        <v>1.8236946013004789E-2</v>
+        <v>1.8245997129515742E-2</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="5"/>
-        <v>1.8581748374401096E-2</v>
+        <v>1.8591051912691652E-2</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="5"/>
-        <v>7.731932323750855E-2</v>
+        <v>7.7354954202669413E-2</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="5"/>
-        <v>7.9481048939082824E-2</v>
+        <v>7.9518808594558538E-2</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" si="5"/>
-        <v>8.1519999144421623E-2</v>
+        <v>8.1559766590965102E-2</v>
       </c>
       <c r="I22" s="10">
         <f>(I21-I20)/95.211</f>
-        <v>1.0556817763703773E-2</v>
+        <v>1.0572089610968987E-2</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" ref="J22:N22" si="6">(J21-J20)/95.211</f>
-        <v>1.0775952358445978E-2</v>
+        <v>1.0791429025688208E-2</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" si="6"/>
-        <v>1.0889655145939019E-2</v>
+        <v>1.0905189982757125E-2</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="6"/>
-        <v>4.5740489756435715E-2</v>
+        <v>4.5807953709158612E-2</v>
       </c>
       <c r="M22" s="10">
         <f t="shared" si="6"/>
-        <v>4.7113002425139952E-2</v>
+        <v>4.718102559930084E-2</v>
       </c>
       <c r="N22" s="10">
         <f t="shared" si="6"/>
-        <v>4.808689342617975E-2</v>
+        <v>4.8155367609406904E-2</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3007,51 +3197,51 @@
       </c>
       <c r="C23" s="10">
         <f>(2*C20*0.0821*(C18+273.15))/58.44</f>
-        <v>4.3589832215199346E-2</v>
+        <v>4.3632755909724971E-2</v>
       </c>
       <c r="D23" s="10">
         <f t="shared" ref="D23:H24" si="7">2*D20*0.0821*(D18+273.15)/58.44</f>
-        <v>3.8223213164998292E-2</v>
+        <v>3.8260852252884253E-2</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="7"/>
-        <v>3.0511134773485625E-2</v>
+        <v>3.0541179638585849E-2</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" si="7"/>
-        <v>0.44929767100231</v>
+        <v>0.44974010252822111</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="7"/>
-        <v>0.34255532228567753</v>
+        <v>0.34289264269423819</v>
       </c>
       <c r="H23" s="10">
         <f t="shared" si="7"/>
-        <v>0.24308459051805273</v>
+        <v>0.24332396030171621</v>
       </c>
       <c r="I23" s="10">
         <f>3*I20*0.0821*(I18+273.15)/95.211</f>
-        <v>4.9033799046111368E-2</v>
+        <v>4.9045872670279246E-2</v>
       </c>
       <c r="J23" s="10">
         <f t="shared" ref="J23:N23" si="8">3*J20*0.0821*(J18+273.15)/95.211</f>
-        <v>4.2777310196143309E-2</v>
+        <v>4.2787843281000458E-2</v>
       </c>
       <c r="K23" s="10">
         <f t="shared" si="8"/>
-        <v>3.6449517883954279E-2</v>
+        <v>3.6458492872402923E-2</v>
       </c>
       <c r="L23" s="10">
         <f t="shared" si="8"/>
-        <v>0.29583004684437864</v>
+        <v>0.29590288926884201</v>
       </c>
       <c r="M23" s="10">
         <f t="shared" si="8"/>
-        <v>0.21060640769917258</v>
+        <v>0.2106582654516489</v>
       </c>
       <c r="N23" s="10">
         <f t="shared" si="8"/>
-        <v>0.15335704463683825</v>
+        <v>0.1533948058414861</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3060,51 +3250,51 @@
       </c>
       <c r="C24" s="10">
         <f>2*C21*0.0821*(C19+273.15)/58.44</f>
-        <v>0.91451975007494879</v>
+        <v>0.91499215141649015</v>
       </c>
       <c r="D24" s="10">
         <f t="shared" si="7"/>
-        <v>0.91627883262645449</v>
+        <v>0.91675214263394544</v>
       </c>
       <c r="E24" s="10">
         <f t="shared" si="7"/>
-        <v>0.92476680694413071</v>
+        <v>0.9252445014719719</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="7"/>
-        <v>4.2109824011088293</v>
+        <v>4.2131576124537222</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="7"/>
-        <v>4.1903821160831622</v>
+        <v>4.1925466862119611</v>
       </c>
       <c r="H24" s="10">
         <f t="shared" si="7"/>
-        <v>4.1839889241786441</v>
+        <v>4.1861501918610706</v>
       </c>
       <c r="I24" s="10">
         <f>3*I21*0.0821*(I19+273.15)/95.211</f>
-        <v>0.80920338778151046</v>
+        <v>0.81031533553843893</v>
       </c>
       <c r="J24" s="10">
         <f t="shared" ref="J24:N24" si="9">3*J21*0.0821*(J19+273.15)/95.211</f>
-        <v>0.81528969821107855</v>
+        <v>0.81641000932798824</v>
       </c>
       <c r="K24" s="10">
         <f t="shared" si="9"/>
-        <v>0.81664666127516772</v>
+        <v>0.81776883703087933</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" si="9"/>
-        <v>3.5973435883873721</v>
+        <v>3.6022867932656597</v>
       </c>
       <c r="M24" s="10">
         <f t="shared" si="9"/>
-        <v>3.5946673041166464</v>
+        <v>3.5996068314420007</v>
       </c>
       <c r="N24" s="10">
         <f t="shared" si="9"/>
-        <v>3.6035882349453527</v>
+        <v>3.6085400207574798</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -3178,51 +3368,51 @@
       </c>
       <c r="C26" s="10">
         <f>(C17*60*C16/(18*138/10^4))/C25</f>
-        <v>1771.3773064802492</v>
+        <v>1771.3773978826082</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" ref="D26:N26" si="11">(D17*60*D16/(18*138/10^4))/D25</f>
-        <v>2611.3049902834423</v>
+        <v>2611.3051088178713</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="11"/>
-        <v>3455.1894799634738</v>
+        <v>3455.1896052453985</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="11"/>
-        <v>698.45383149624115</v>
+        <v>698.45420123279098</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="11"/>
-        <v>1560.3672913568942</v>
+        <v>1560.3679234331255</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="11"/>
-        <v>2399.9714594404472</v>
+        <v>2399.9721502216844</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="11"/>
-        <v>1654.4619181653588</v>
+        <v>1654.4619444863952</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="11"/>
-        <v>2412.9549185856163</v>
+        <v>2412.9549521443892</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="11"/>
-        <v>3046.3760182352685</v>
+        <v>3046.3760543941657</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="11"/>
-        <v>805.01194340519703</v>
+        <v>805.01202052465248</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="11"/>
-        <v>1437.46658590945</v>
+        <v>1437.4666840016641</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="11"/>
-        <v>2231.391892692895</v>
+        <v>2231.3920038313045</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
@@ -3241,52 +3431,52 @@
         <v>10</v>
       </c>
       <c r="C27" s="10">
-        <f>C26*C20/58.44</f>
-        <v>1.5883933335668685</v>
+        <f>C26*18.016*C20/(58.11*0.99705*1000)</f>
+        <v>2.8892577870041781E-2</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" ref="D27:H27" si="12">D26*D20/58.44</f>
-        <v>2.0598824090767924</v>
+        <f>D26*18.016*D20/(58.11*0.99705*1000)</f>
+        <v>3.7468875800639373E-2</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="12"/>
-        <v>2.1771196803453114</v>
+        <f t="shared" ref="E27:N27" si="12">E26*18.016*E20/(58.11*0.99705*1000)</f>
+        <v>3.9601399478657262E-2</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="12"/>
-        <v>6.4284135742572532</v>
+        <v>0.11693169732390213</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="12"/>
-        <v>10.988187100732166</v>
+        <v>0.19987314034365786</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="12"/>
-        <v>12.007300740512015</v>
+        <v>0.21841060792438111</v>
       </c>
       <c r="I27" s="10">
-        <f>I26*I20/95.211</f>
-        <v>1.1227984738266679</v>
+        <f t="shared" si="12"/>
+        <v>3.3249600418271415E-2</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" ref="J27:N27" si="13">J26*J20/95.211</f>
-        <v>1.4315330050124817</v>
+        <f t="shared" si="12"/>
+        <v>4.2392202533683858E-2</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="13"/>
-        <v>1.5424350384616776</v>
+        <f t="shared" si="12"/>
+        <v>4.567636106418025E-2</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="13"/>
-        <v>3.2908168892378717</v>
+        <f t="shared" si="12"/>
+        <v>9.7451464273350677E-2</v>
       </c>
       <c r="M27" s="10">
-        <f>M26*M20/95.211</f>
-        <v>4.1852911524668537</v>
+        <f t="shared" si="12"/>
+        <v>0.12393966413371647</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="13"/>
-        <v>4.7415768803346632</v>
+        <f t="shared" si="12"/>
+        <v>0.14041303550269207</v>
       </c>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -3307,51 +3497,51 @@
       </c>
       <c r="C28" s="10">
         <f>C26/((C13/14.6959)-(C24-C23)*C27)</f>
-        <v>476.16582079099379</v>
+        <v>348.81386287173586</v>
       </c>
       <c r="D28" s="10">
         <f>D26/((D13/14.6959)-(D24-D23)*D27)</f>
-        <v>434.01524021822826</v>
+        <v>335.10940611087904</v>
       </c>
       <c r="E28" s="10">
-        <f t="shared" ref="E28:N28" si="14">E26/((E13/14.6959)-(E24-E23)*E27)</f>
-        <v>401.7541758477422</v>
+        <f t="shared" ref="E28:N28" si="13">E26/((E13/14.6959)-(E24-E23)*E27)</f>
+        <v>328.6985389497994</v>
       </c>
       <c r="F28" s="10">
         <f>F26/((F13/14.6959)-(F24-F23)*F27)</f>
-        <v>-36.610046898153016</v>
+        <v>149.7735528596418</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" si="14"/>
-        <v>-45.286675248093601</v>
+        <f t="shared" si="13"/>
+        <v>221.14467256614049</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="14"/>
-        <v>-65.265451130172693</v>
+        <f t="shared" si="13"/>
+        <v>247.77731524411124</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="14"/>
-        <v>389.2900139573992</v>
+        <f t="shared" si="13"/>
+        <v>325.79998358714028</v>
       </c>
       <c r="J28" s="10">
-        <f t="shared" si="14"/>
-        <v>359.10087314254753</v>
+        <f t="shared" si="13"/>
+        <v>309.65029359760052</v>
       </c>
       <c r="K28" s="10">
-        <f t="shared" si="14"/>
-        <v>326.03334439925624</v>
+        <f t="shared" si="13"/>
+        <v>289.81440989905116</v>
       </c>
       <c r="L28" s="10">
-        <f t="shared" si="14"/>
-        <v>-139.72960945348467</v>
+        <f t="shared" si="13"/>
+        <v>168.36844692829843</v>
       </c>
       <c r="M28" s="10">
-        <f t="shared" si="14"/>
-        <v>-226.80242566119639</v>
+        <f t="shared" si="13"/>
+        <v>194.11357684861395</v>
       </c>
       <c r="N28" s="10">
-        <f t="shared" si="14"/>
-        <v>-383.90350117007176</v>
+        <f t="shared" si="13"/>
+        <v>221.76399783282272</v>
       </c>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
@@ -3371,52 +3561,52 @@
         <v>12</v>
       </c>
       <c r="C29" s="10">
-        <f>C26/C22</f>
-        <v>98467.149588036482</v>
+        <f>C27/C22</f>
+        <v>1.6052860504623043</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" ref="D29:N29" si="15">D26/D22</f>
-        <v>143187.62518797378</v>
+        <f t="shared" ref="D29:N29" si="14">D27/D22</f>
+        <v>2.0535394988102693</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" si="15"/>
-        <v>185945.33788453785</v>
+        <f t="shared" si="14"/>
+        <v>2.1301322628023196</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="15"/>
-        <v>9033.3671099362728</v>
+        <f t="shared" si="14"/>
+        <v>1.5116251897395212</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="15"/>
-        <v>19631.94135186636</v>
+        <f t="shared" si="14"/>
+        <v>2.5135328845625482</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="15"/>
-        <v>29440.278270717772</v>
+        <f t="shared" si="14"/>
+        <v>2.6779209535964497</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="15"/>
-        <v>156719.75733574701</v>
+        <f t="shared" si="14"/>
+        <v>3.145035810496116</v>
       </c>
       <c r="J29" s="10">
-        <f t="shared" si="15"/>
-        <v>223920.34024671518</v>
+        <f t="shared" si="14"/>
+        <v>3.928321488541723</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" si="15"/>
-        <v>279749.54003675003</v>
+        <f t="shared" si="14"/>
+        <v>4.1884975077373241</v>
       </c>
       <c r="L29" s="10">
-        <f t="shared" si="15"/>
-        <v>17599.547964873538</v>
+        <f t="shared" si="14"/>
+        <v>2.127391782049123</v>
       </c>
       <c r="M29" s="10">
-        <f t="shared" si="15"/>
-        <v>30511.037546238065</v>
+        <f t="shared" si="14"/>
+        <v>2.6268963541893227</v>
       </c>
       <c r="N29" s="10">
-        <f t="shared" si="15"/>
-        <v>46403.328094346543</v>
+        <f t="shared" si="14"/>
+        <v>2.9158335295370708</v>
       </c>
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
@@ -3444,43 +3634,43 @@
         <v>0.33725805130752023</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" ref="E30:N30" si="16">(E17/3785.41)*100</f>
+        <f t="shared" ref="E30:N30" si="15">(E17/3785.41)*100</f>
         <v>0.44859341524431967</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>8.1018436576222916E-2</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.19025257501829393</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.29724124995707202</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.22037771337847156</v>
       </c>
       <c r="J30" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.33607984339873354</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.42732227156371433</v>
       </c>
       <c r="L30" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.10460082263215872</v>
       </c>
       <c r="M30" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.19597243099162309</v>
       </c>
       <c r="N30" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.30819382840960424</v>
       </c>
       <c r="O30" s="15"/>
@@ -3502,51 +3692,51 @@
       </c>
       <c r="C31" s="10">
         <f>1-C20/C21</f>
-        <v>0.95252097242847089</v>
+        <v>0.95249875606083811</v>
       </c>
       <c r="D31" s="10">
-        <f t="shared" ref="D31:N31" si="17">1-D20/D21</f>
-        <v>0.95853874993085952</v>
+        <f t="shared" ref="D31:N31" si="16">1-D20/D21</f>
+        <v>0.95851934939927408</v>
       </c>
       <c r="E31" s="10">
-        <f t="shared" si="17"/>
-        <v>0.96720246129893772</v>
+        <f t="shared" si="16"/>
+        <v>0.96718711468771801</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="17"/>
-        <v>0.89362635743541363</v>
+        <f t="shared" si="16"/>
+        <v>0.89357658312303778</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="17"/>
-        <v>0.9186107337023699</v>
+        <f t="shared" si="16"/>
+        <v>0.91857265006936584</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" si="17"/>
-        <v>0.94217611902515819</v>
+        <f t="shared" si="16"/>
+        <v>0.94214906209784954</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="17"/>
-        <v>0.93959763690242493</v>
+        <f t="shared" si="16"/>
+        <v>0.93966567098507914</v>
       </c>
       <c r="J31" s="10">
-        <f t="shared" si="17"/>
-        <v>0.9478179172729162</v>
+        <f t="shared" si="16"/>
+        <v>0.94787669245897288</v>
       </c>
       <c r="K31" s="10">
-        <f t="shared" si="17"/>
-        <v>0.95557044566838278</v>
+        <f t="shared" si="16"/>
+        <v>0.95562048880935735</v>
       </c>
       <c r="L31" s="10">
-        <f t="shared" si="17"/>
-        <v>0.91796022734010341</v>
+        <f t="shared" si="16"/>
+        <v>0.91805263267638237</v>
       </c>
       <c r="M31" s="10">
-        <f t="shared" si="17"/>
-        <v>0.9417971176953488</v>
+        <f t="shared" si="16"/>
+        <v>0.94186267439714588</v>
       </c>
       <c r="N31" s="10">
-        <f t="shared" si="17"/>
-        <v>0.95768046814715524</v>
+        <f t="shared" si="16"/>
+        <v>0.95772813466846851</v>
       </c>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
@@ -3623,7 +3813,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3638,20 +3828,124 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C37" s="31"/>
+      <c r="D37" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C38" s="32"/>
+      <c r="D38" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C39" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C40" s="32">
+        <v>75</v>
+      </c>
+      <c r="D40" s="35" cm="1">
+        <f t="array" ref="D40:D42">TRANSPOSE(C17:E17)</f>
+        <v>8.1928000000000001</v>
+      </c>
+      <c r="E40" s="35" cm="1">
+        <f t="array" ref="E40:E42">TRANSPOSE(F17:H17)</f>
+        <v>3.0668799999999998</v>
+      </c>
+      <c r="F40" s="35" cm="1">
+        <f t="array" ref="F40:F42">TRANSPOSE(I17:K17)</f>
+        <v>8.3422000000000001</v>
+      </c>
+      <c r="G40" s="36" cm="1">
+        <f t="array" ref="G40:G42">TRANSPOSE(L17:N17)</f>
+        <v>3.9595699999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C41" s="32">
+        <v>115</v>
+      </c>
+      <c r="D41" s="35">
+        <v>12.7666</v>
+      </c>
+      <c r="E41" s="35">
+        <v>7.2018399999999998</v>
+      </c>
+      <c r="F41" s="35">
+        <v>12.722</v>
+      </c>
+      <c r="G41" s="36">
+        <v>7.4183599999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="37">
+        <v>155</v>
+      </c>
+      <c r="D42" s="38">
+        <v>16.981100000000001</v>
+      </c>
+      <c r="E42" s="38">
+        <v>11.251799999999999</v>
+      </c>
+      <c r="F42" s="38">
+        <v>16.175899999999999</v>
+      </c>
+      <c r="G42" s="39">
+        <v>11.666399999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
+  <mergeCells count="47">
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="O3:T3"/>
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="U3:Z3"/>
@@ -3668,22 +3962,18 @@
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="R9:T9"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="U9:W9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3692,6 +3982,217 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3B4F35-824B-8748-8932-58082859B0BD}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:B13">fluxVsPressure!C1:C13</f>
+        <v>Transmembrane Pressure drop, kPa</v>
+      </c>
+      <c r="C1" t="str" cm="1">
+        <f t="array" ref="C1:C13">TRANSPOSE(Sheet1!B30:N30)</f>
+        <v xml:space="preserve">% Recovery </v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>517.10679698837248</v>
+      </c>
+      <c r="C2">
+        <v>0.21643098105621322</v>
+      </c>
+      <c r="D2">
+        <f>C2*100</f>
+        <v>21.643098105621323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>792.89708871550454</v>
+      </c>
+      <c r="C3">
+        <v>0.33725805130752023</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">C3*100</f>
+        <v>33.725805130752022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1068.6873804426366</v>
+      </c>
+      <c r="C4">
+        <v>0.44859341524431967</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>44.859341524431969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>517.10679698837248</v>
+      </c>
+      <c r="C5">
+        <v>8.1018436576222916E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>8.1018436576222914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>792.89708871550454</v>
+      </c>
+      <c r="C6">
+        <v>0.19025257501829393</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>19.025257501829394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1068.6873804426366</v>
+      </c>
+      <c r="C7">
+        <v>0.29724124995707202</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>29.7241249957072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>517.10679698837248</v>
+      </c>
+      <c r="C8">
+        <v>0.22037771337847156</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>22.037771337847158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>792.89708871550454</v>
+      </c>
+      <c r="C9">
+        <v>0.33607984339873354</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>33.607984339873354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1068.6873804426366</v>
+      </c>
+      <c r="C10">
+        <v>0.42732227156371433</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>42.73222715637143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>517.10679698837248</v>
+      </c>
+      <c r="C11">
+        <v>0.10460082263215872</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>10.460082263215872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>792.89708871550454</v>
+      </c>
+      <c r="C12">
+        <v>0.19597243099162309</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>19.597243099162309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1068.6873804426366</v>
+      </c>
+      <c r="C13">
+        <v>0.30819382840960424</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>30.819382840960426</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FF4BF0-FC9E-1649-B74A-1D2D26E94D1A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -3738,11 +4239,11 @@
         <v>517.10679698837248</v>
       </c>
       <c r="D2">
-        <v>1771.3773064802492</v>
+        <v>1771.3773978826082</v>
       </c>
       <c r="E2">
         <f>((D2*18.016)/'water density'!$E$8)/1000</f>
-        <v>32.007555843285857</v>
+        <v>32.007557494862908</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3757,11 +4258,11 @@
         <v>792.89708871550454</v>
       </c>
       <c r="D3">
-        <v>2611.3049902834423</v>
+        <v>2611.3051088178713</v>
       </c>
       <c r="E3">
         <f>((D3*18.016)/'water density'!$E$8)/1000</f>
-        <v>47.184464876331674</v>
+        <v>47.184467018166352</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3776,11 +4277,11 @@
         <v>1068.6873804426366</v>
       </c>
       <c r="D4">
-        <v>3455.1894799634738</v>
+        <v>3455.1896052453985</v>
       </c>
       <c r="E4">
         <f>((D4*18.016)/'water density'!$E$8)/1000</f>
-        <v>62.432870639408186</v>
+        <v>62.432872903165432</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3795,11 +4296,11 @@
         <v>517.10679698837248</v>
       </c>
       <c r="D5">
-        <v>698.45383149624115</v>
+        <v>698.45420123279098</v>
       </c>
       <c r="E5">
         <f>((D5*18.016)/'water density'!$E$8)/1000</f>
-        <v>12.620574924262856</v>
+        <v>12.620581605145141</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3814,11 +4315,11 @@
         <v>792.89708871550454</v>
       </c>
       <c r="D6">
-        <v>1560.3672913568942</v>
+        <v>1560.3679234331255</v>
       </c>
       <c r="E6">
         <f>((D6*18.016)/'water density'!$E$8)/1000</f>
-        <v>28.194751638419142</v>
+        <v>28.194763059596998</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3833,11 +4334,11 @@
         <v>1068.6873804426366</v>
       </c>
       <c r="D7">
-        <v>2399.9714594404472</v>
+        <v>2399.9721502216844</v>
       </c>
       <c r="E7">
         <f>((D7*18.016)/'water density'!$E$8)/1000</f>
-        <v>43.365814967433018</v>
+        <v>43.365827449369505</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -3852,11 +4353,11 @@
         <v>517.10679698837248</v>
       </c>
       <c r="D8">
-        <v>1654.4619181653588</v>
+        <v>1654.4619444863952</v>
       </c>
       <c r="E8">
         <f>((D8*18.016)/'water density'!$E$8)/1000</f>
-        <v>29.894976097153702</v>
+        <v>29.894976572756523</v>
       </c>
       <c r="G8" s="18"/>
     </row>
@@ -3872,11 +4373,11 @@
         <v>792.89708871550454</v>
       </c>
       <c r="D9">
-        <v>2412.9549185856163</v>
+        <v>2412.9549521443892</v>
       </c>
       <c r="E9">
         <f>((D9*18.016)/'water density'!$E$8)/1000</f>
-        <v>43.600417043516835</v>
+        <v>43.600417649900521</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3891,11 +4392,11 @@
         <v>1068.6873804426366</v>
       </c>
       <c r="D10">
-        <v>3046.3760182352685</v>
+        <v>3046.3760543941657</v>
       </c>
       <c r="E10">
         <f>((D10*18.016)/'water density'!$E$8)/1000</f>
-        <v>55.045895736950598</v>
+        <v>55.04589639031672</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3910,11 +4411,11 @@
         <v>517.10679698837248</v>
       </c>
       <c r="D11">
-        <v>805.01194340519703</v>
+        <v>805.01202052465248</v>
       </c>
       <c r="E11">
         <f>((D11*18.016)/'water density'!$E$8)/1000</f>
-        <v>14.546005889762828</v>
+        <v>14.546007283257747</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3929,11 +4430,11 @@
         <v>792.89708871550454</v>
       </c>
       <c r="D12">
-        <v>1437.46658590945</v>
+        <v>1437.4666840016641</v>
       </c>
       <c r="E12">
         <f>((D12*18.016)/'water density'!$E$8)/1000</f>
-        <v>25.974021374800309</v>
+        <v>25.974023147258389</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3948,11 +4449,11 @@
         <v>1068.6873804426366</v>
       </c>
       <c r="D13">
-        <v>2231.391892692895</v>
+        <v>2231.3920038313045</v>
       </c>
       <c r="E13">
         <f>((D13*18.016)/'water density'!$E$8)/1000</f>
-        <v>40.319699452138998</v>
+        <v>40.319701460332752</v>
       </c>
     </row>
   </sheetData>
@@ -3961,7 +4462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAB2749-D02D-4E4E-8932-C02A790ACEB4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -4022,29 +4523,29 @@
         <v>517.10679698837248</v>
       </c>
       <c r="D2">
-        <v>0.91451975007494879</v>
+        <v>0.91499215141649015</v>
       </c>
       <c r="E2">
         <f>D2*101.325</f>
-        <v>92.663713676344187</v>
+        <v>92.711579742275873</v>
       </c>
       <c r="F2">
-        <v>4.3589832215199346E-2</v>
+        <v>4.3632755909724971E-2</v>
       </c>
       <c r="G2">
         <f>F2*101.325</f>
-        <v>4.4167397492050737</v>
+        <v>4.4210889925528827</v>
       </c>
       <c r="H2">
         <f>E2-G2</f>
-        <v>88.246973927139109</v>
+        <v>88.290490749722991</v>
       </c>
       <c r="I2">
         <f>C2-H2</f>
-        <v>428.85982306123339</v>
+        <v>428.81630623864947</v>
       </c>
       <c r="J2">
-        <v>32.007555843285857</v>
+        <v>32.007557494862908</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4059,29 +4560,29 @@
         <v>792.89708871550454</v>
       </c>
       <c r="D3">
-        <v>0.91627883262645449</v>
+        <v>0.91675214263394544</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E13" si="1">D3*101.325</f>
-        <v>92.841952715875507</v>
+        <v>92.889910852384531</v>
       </c>
       <c r="F3">
-        <v>3.8223213164998292E-2</v>
+        <v>3.8260852252884253E-2</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G13" si="2">F3*101.325</f>
-        <v>3.8729670739434519</v>
+        <v>3.876780854523497</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H13" si="3">E3-G3</f>
-        <v>88.968985641932051</v>
+        <v>89.013129997861029</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I13" si="4">C3-H3</f>
-        <v>703.92810307357252</v>
+        <v>703.88395871764351</v>
       </c>
       <c r="J3">
-        <v>47.184464876331674</v>
+        <v>47.184467018166352</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4096,29 +4597,29 @@
         <v>1068.6873804426366</v>
       </c>
       <c r="D4">
-        <v>0.92476680694413071</v>
+        <v>0.9252445014719719</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>93.701996713614051</v>
+        <v>93.750399111647553</v>
       </c>
       <c r="F4">
-        <v>3.0511134773485625E-2</v>
+        <v>3.0541179638585849E-2</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>3.0915407309234308</v>
+        <v>3.0945850268797113</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>90.610455982690624</v>
+        <v>90.65581408476784</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>978.07692445994599</v>
+        <v>978.03156635786877</v>
       </c>
       <c r="J4">
-        <v>62.432870639408186</v>
+        <v>62.432872903165432</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4133,29 +4634,29 @@
         <v>517.10679698837248</v>
       </c>
       <c r="D5">
-        <v>4.2109824011088293</v>
+        <v>4.2131576124537222</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>426.67779179235214</v>
+        <v>426.89819508187344</v>
       </c>
       <c r="F5">
-        <v>0.44929767100231</v>
+        <v>0.44974010252822111</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>45.525086514309059</v>
+        <v>45.569915888672007</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>381.15270527804307</v>
+        <v>381.32827919320141</v>
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
-        <v>135.95409171032941</v>
+        <v>135.77851779517107</v>
       </c>
       <c r="J5">
-        <v>12.620574924262856</v>
+        <v>12.620581605145141</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -4170,29 +4671,29 @@
         <v>792.89708871550454</v>
       </c>
       <c r="D6">
-        <v>4.1903821160831622</v>
+        <v>4.1925466862119611</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>424.59046791212643</v>
+        <v>424.80979298042695</v>
       </c>
       <c r="F6">
-        <v>0.34255532228567753</v>
+        <v>0.34289264269423819</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>34.709418030596275</v>
+        <v>34.743597020993683</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>389.88104988153015</v>
+        <v>390.06619595943329</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
-        <v>403.01603883397439</v>
+        <v>402.83089275607125</v>
       </c>
       <c r="J6">
-        <v>28.194751638419142</v>
+        <v>28.194763059596998</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4207,29 +4708,29 @@
         <v>1068.6873804426366</v>
       </c>
       <c r="D7">
-        <v>4.1839889241786441</v>
+        <v>4.1861501918610706</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>423.94267774240114</v>
+        <v>424.16166819032298</v>
       </c>
       <c r="F7">
-        <v>0.24308459051805273</v>
+        <v>0.24332396030171621</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>24.630546134241694</v>
+        <v>24.654800277571397</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>399.31213160815946</v>
+        <v>399.5068679127516</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
-        <v>669.37524883447713</v>
+        <v>669.18051252988494</v>
       </c>
       <c r="J7">
-        <v>43.365814967433018</v>
+        <v>43.365827449369505</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4244,29 +4745,29 @@
         <v>517.10679698837248</v>
       </c>
       <c r="D8">
-        <v>0.80920338778151046</v>
+        <v>0.81031533553843893</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>81.992533266961544</v>
+        <v>82.105201373432322</v>
       </c>
       <c r="F8">
-        <v>4.9033799046111368E-2</v>
+        <v>4.9045872670279246E-2</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>4.9683496883472342</v>
+        <v>4.969573048316045</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>77.024183578614313</v>
+        <v>77.135628325116272</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
-        <v>440.08261340975815</v>
+        <v>439.97116866325621</v>
       </c>
       <c r="J8">
-        <v>29.894976097153702</v>
+        <v>29.894976572756523</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -4281,29 +4782,29 @@
         <v>792.89708871550454</v>
       </c>
       <c r="D9">
-        <v>0.81528969821107855</v>
+        <v>0.81641000932798824</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>82.609228671237531</v>
+        <v>82.722744195158413</v>
       </c>
       <c r="F9">
-        <v>4.2777310196143309E-2</v>
+        <v>4.2787843281000458E-2</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>4.3344109556242207</v>
+        <v>4.3354782204473716</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>78.27481771561331</v>
+        <v>78.387265974711042</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>714.62227099989127</v>
+        <v>714.50982274079354</v>
       </c>
       <c r="J9">
-        <v>43.600417043516835</v>
+        <v>43.600417649900521</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -4318,29 +4819,29 @@
         <v>1068.6873804426366</v>
       </c>
       <c r="D10">
-        <v>0.81664666127516772</v>
+        <v>0.81776883703087933</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>82.746722953706367</v>
+        <v>82.860427412153854</v>
       </c>
       <c r="F10">
-        <v>3.6449517883954279E-2</v>
+        <v>3.6458492872402923E-2</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>3.6932473995916673</v>
+        <v>3.6941567902962262</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>79.053475554114698</v>
+        <v>79.16627062185762</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>989.6339048885219</v>
+        <v>989.52110982077897</v>
       </c>
       <c r="J10">
-        <v>55.045895736950598</v>
+        <v>55.04589639031672</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -4355,29 +4856,29 @@
         <v>517.10679698837248</v>
       </c>
       <c r="D11">
-        <v>3.5973435883873721</v>
+        <v>3.6022867932656597</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>364.50083909335046</v>
+        <v>365.00170932764297</v>
       </c>
       <c r="F11">
-        <v>0.29583004684437864</v>
+        <v>0.29590288926884201</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>29.974979496506666</v>
+        <v>29.982360255165418</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>334.52585959684382</v>
+        <v>335.01934907247755</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>182.58093739152866</v>
+        <v>182.08744791589493</v>
       </c>
       <c r="J11">
-        <v>14.546005889762828</v>
+        <v>14.546007283257747</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -4392,29 +4893,29 @@
         <v>792.89708871550454</v>
       </c>
       <c r="D12">
-        <v>3.5946673041166464</v>
+        <v>3.5996068314420007</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>364.22966458961918</v>
+        <v>364.73016219586071</v>
       </c>
       <c r="F12">
-        <v>0.21060640769917258</v>
+        <v>0.2106582654516489</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>21.339694260118662</v>
+        <v>21.344948746888324</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>342.8899703295005</v>
+        <v>343.38521344897237</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>450.00711838600404</v>
+        <v>449.51187526653217</v>
       </c>
       <c r="J12">
-        <v>25.974021374800309</v>
+        <v>25.974023147258389</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -4429,29 +4930,29 @@
         <v>1068.6873804426366</v>
       </c>
       <c r="D13">
-        <v>3.6035882349453527</v>
+        <v>3.6085400207574798</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>365.13357790583785</v>
+        <v>365.63531760325168</v>
       </c>
       <c r="F13">
-        <v>0.15335704463683825</v>
+        <v>0.1533948058414861</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>15.538902547827636</v>
+        <v>15.54272870188858</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>349.59467535801019</v>
+        <v>350.09258890136311</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>719.09270508462646</v>
+        <v>718.59479154127348</v>
       </c>
       <c r="J13">
-        <v>40.319699452138998</v>
+        <v>40.319701460332752</v>
       </c>
     </row>
   </sheetData>
@@ -4460,12 +4961,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0D1540-776A-F943-B79E-86806F7B9675}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4491,10 +4992,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.5883933335668685</v>
+        <v>2.8892577870041781E-2</v>
       </c>
       <c r="C2">
-        <v>1.7989525581793293E-2</v>
+        <v>1.799839839243669E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4502,10 +5003,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.0598824090767924</v>
+        <v>3.7468875800639373E-2</v>
       </c>
       <c r="C3">
-        <v>1.8236946013004789E-2</v>
+        <v>1.8245997129515742E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4513,10 +5014,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2.1771196803453114</v>
+        <v>3.9601399478657262E-2</v>
       </c>
       <c r="C4">
-        <v>1.8581748374401096E-2</v>
+        <v>1.8591051912691652E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4524,10 +5025,10 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>6.4284135742572532</v>
+        <v>0.11693169732390213</v>
       </c>
       <c r="C5">
-        <v>7.731932323750855E-2</v>
+        <v>7.7354954202669413E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4535,10 +5036,10 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>10.988187100732166</v>
+        <v>0.19987314034365786</v>
       </c>
       <c r="C6">
-        <v>7.9481048939082824E-2</v>
+        <v>7.9518808594558538E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4546,10 +5047,10 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>12.007300740512015</v>
+        <v>0.21841060792438111</v>
       </c>
       <c r="C7">
-        <v>8.1519999144421623E-2</v>
+        <v>8.1559766590965102E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4557,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>1.1227984738266679</v>
+        <v>3.3249600418271415E-2</v>
       </c>
       <c r="C8">
-        <v>1.0556817763703773E-2</v>
+        <v>1.0572089610968987E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4568,10 +5069,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1.4315330050124817</v>
+        <v>4.2392202533683858E-2</v>
       </c>
       <c r="C9">
-        <v>1.0775952358445978E-2</v>
+        <v>1.0791429025688208E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4579,10 +5080,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>1.5424350384616776</v>
+        <v>4.567636106418025E-2</v>
       </c>
       <c r="C10">
-        <v>1.0889655145939019E-2</v>
+        <v>1.0905189982757125E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4590,10 +5091,10 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>3.2908168892378717</v>
+        <v>9.7451464273350677E-2</v>
       </c>
       <c r="C11">
-        <v>4.5740489756435715E-2</v>
+        <v>4.5807953709158612E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4601,10 +5102,10 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>4.1852911524668537</v>
+        <v>0.12393966413371647</v>
       </c>
       <c r="C12">
-        <v>4.7113002425139952E-2</v>
+        <v>4.718102559930084E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4612,18 +5113,19 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>4.7415768803346632</v>
+        <v>0.14041303550269207</v>
       </c>
       <c r="C13">
-        <v>4.808689342617975E-2</v>
+        <v>4.8155367609406904E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF07EAE4-8095-8840-A193-F58613B32337}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -4655,13 +5157,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>32.007555843285857</v>
+        <v>32.007557494862908</v>
       </c>
       <c r="C2">
         <v>517.10679698837248</v>
       </c>
       <c r="D2">
-        <v>428.85982306123339</v>
+        <v>428.81630623864947</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4669,13 +5171,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>47.184464876331674</v>
+        <v>47.184467018166352</v>
       </c>
       <c r="C3">
         <v>792.89708871550454</v>
       </c>
       <c r="D3">
-        <v>703.92810307357252</v>
+        <v>703.88395871764351</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4683,13 +5185,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>62.432870639408186</v>
+        <v>62.432872903165432</v>
       </c>
       <c r="C4">
         <v>1068.6873804426366</v>
       </c>
       <c r="D4">
-        <v>978.07692445994599</v>
+        <v>978.03156635786877</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4697,13 +5199,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>12.620574924262856</v>
+        <v>12.620581605145141</v>
       </c>
       <c r="C5">
         <v>517.10679698837248</v>
       </c>
       <c r="D5">
-        <v>135.95409171032941</v>
+        <v>135.77851779517107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4711,13 +5213,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>28.194751638419142</v>
+        <v>28.194763059596998</v>
       </c>
       <c r="C6">
         <v>792.89708871550454</v>
       </c>
       <c r="D6">
-        <v>403.01603883397439</v>
+        <v>402.83089275607125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4725,13 +5227,13 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>43.365814967433018</v>
+        <v>43.365827449369505</v>
       </c>
       <c r="C7">
         <v>1068.6873804426366</v>
       </c>
       <c r="D7">
-        <v>669.37524883447713</v>
+        <v>669.18051252988494</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4739,13 +5241,13 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>29.894976097153702</v>
+        <v>29.894976572756523</v>
       </c>
       <c r="C8">
         <v>517.10679698837248</v>
       </c>
       <c r="D8">
-        <v>440.08261340975815</v>
+        <v>439.97116866325621</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4753,13 +5255,13 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>43.600417043516835</v>
+        <v>43.600417649900521</v>
       </c>
       <c r="C9">
         <v>792.89708871550454</v>
       </c>
       <c r="D9">
-        <v>714.62227099989127</v>
+        <v>714.50982274079354</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4767,13 +5269,13 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>55.045895736950598</v>
+        <v>55.04589639031672</v>
       </c>
       <c r="C10">
         <v>1068.6873804426366</v>
       </c>
       <c r="D10">
-        <v>989.6339048885219</v>
+        <v>989.52110982077897</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4781,13 +5283,13 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>14.546005889762828</v>
+        <v>14.546007283257747</v>
       </c>
       <c r="C11">
         <v>517.10679698837248</v>
       </c>
       <c r="D11">
-        <v>182.58093739152866</v>
+        <v>182.08744791589493</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4795,13 +5297,13 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>25.974021374800309</v>
+        <v>25.974023147258389</v>
       </c>
       <c r="C12">
         <v>792.89708871550454</v>
       </c>
       <c r="D12">
-        <v>450.00711838600404</v>
+        <v>449.51187526653217</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4809,13 +5311,13 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>40.319699452138998</v>
+        <v>40.319701460332752</v>
       </c>
       <c r="C13">
         <v>1068.6873804426366</v>
       </c>
       <c r="D13">
-        <v>719.09270508462646</v>
+        <v>718.59479154127348</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4837,7 +5339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD34794-4739-471C-8187-5C37806194C4}">
   <dimension ref="D4:H9"/>
   <sheetViews>
